--- a/excel_reporting_templates/BatteryTypeInformationForBatterySupplier-1.0.0-schema-reporting_template.xlsx
+++ b/excel_reporting_templates/BatteryTypeInformationForBatterySupplier-1.0.0-schema-reporting_template.xlsx
@@ -487,25 +487,25 @@
     <col width="2.4" customWidth="1" min="1" max="1"/>
     <col width="21.6" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="31.2" customWidth="1" min="5" max="5"/>
-    <col width="31.2" customWidth="1" min="6" max="6"/>
-    <col width="32.4" customWidth="1" min="7" max="7"/>
-    <col width="31.2" customWidth="1" min="8" max="8"/>
-    <col width="32.4" customWidth="1" min="9" max="9"/>
-    <col width="31.2" customWidth="1" min="10" max="10"/>
-    <col width="32.4" customWidth="1" min="11" max="11"/>
-    <col width="28.8" customWidth="1" min="12" max="12"/>
-    <col width="30" customWidth="1" min="13" max="13"/>
+    <col width="32.4" customWidth="1" min="4" max="4"/>
+    <col width="33.6" customWidth="1" min="5" max="5"/>
+    <col width="33.6" customWidth="1" min="6" max="6"/>
+    <col width="34.8" customWidth="1" min="7" max="7"/>
+    <col width="33.6" customWidth="1" min="8" max="8"/>
+    <col width="34.8" customWidth="1" min="9" max="9"/>
+    <col width="33.6" customWidth="1" min="10" max="10"/>
+    <col width="34.8" customWidth="1" min="11" max="11"/>
+    <col width="31.2" customWidth="1" min="12" max="12"/>
+    <col width="32.4" customWidth="1" min="13" max="13"/>
     <col width="18" customWidth="1" min="14" max="14"/>
     <col width="50" customWidth="1" min="15" max="15"/>
     <col width="50" customWidth="1" min="16" max="16"/>
     <col width="50" customWidth="1" min="17" max="17"/>
     <col width="50" customWidth="1" min="18" max="18"/>
-    <col width="45.6" customWidth="1" min="19" max="19"/>
-    <col width="48" customWidth="1" min="20" max="20"/>
-    <col width="48" customWidth="1" min="21" max="21"/>
-    <col width="49.2" customWidth="1" min="22" max="22"/>
+    <col width="46.8" customWidth="1" min="19" max="19"/>
+    <col width="49.2" customWidth="1" min="20" max="20"/>
+    <col width="50" customWidth="1" min="21" max="21"/>
+    <col width="50" customWidth="1" min="22" max="22"/>
     <col width="50" customWidth="1" min="23" max="23"/>
     <col width="50" customWidth="1" min="24" max="24"/>
     <col width="50" customWidth="1" min="25" max="25"/>
@@ -516,8 +516,8 @@
     <col width="50" customWidth="1" min="30" max="30"/>
     <col width="50" customWidth="1" min="31" max="31"/>
     <col width="50" customWidth="1" min="32" max="32"/>
-    <col width="36" customWidth="1" min="33" max="33"/>
-    <col width="44.4" customWidth="1" min="34" max="34"/>
+    <col width="37.2" customWidth="1" min="33" max="33"/>
+    <col width="45.6" customWidth="1" min="34" max="34"/>
     <col width="19.2" customWidth="1" min="35" max="35"/>
     <col width="50" customWidth="1" min="36" max="36"/>
     <col width="50" customWidth="1" min="37" max="37"/>
@@ -528,36 +528,36 @@
     <col width="50" customWidth="1" min="42" max="42"/>
     <col width="50" customWidth="1" min="43" max="43"/>
     <col width="50" customWidth="1" min="44" max="44"/>
-    <col width="27.6" customWidth="1" min="45" max="45"/>
-    <col width="32.4" customWidth="1" min="46" max="46"/>
-    <col width="26.4" customWidth="1" min="47" max="47"/>
+    <col width="28.8" customWidth="1" min="45" max="45"/>
+    <col width="33.6" customWidth="1" min="46" max="46"/>
+    <col width="27.6" customWidth="1" min="47" max="47"/>
     <col width="50" customWidth="1" min="48" max="48"/>
     <col width="50" customWidth="1" min="49" max="49"/>
     <col width="50" customWidth="1" min="50" max="50"/>
-    <col width="36" customWidth="1" min="51" max="51"/>
-    <col width="40.8" customWidth="1" min="52" max="52"/>
-    <col width="49.2" customWidth="1" min="53" max="53"/>
-    <col width="38.4" customWidth="1" min="54" max="54"/>
-    <col width="45.6" customWidth="1" min="55" max="55"/>
-    <col width="43.2" customWidth="1" min="56" max="56"/>
-    <col width="26.4" customWidth="1" min="57" max="57"/>
-    <col width="31.2" customWidth="1" min="58" max="58"/>
-    <col width="36" customWidth="1" min="59" max="59"/>
-    <col width="30" customWidth="1" min="60" max="60"/>
-    <col width="44.4" customWidth="1" min="61" max="61"/>
-    <col width="38.4" customWidth="1" min="62" max="62"/>
+    <col width="37.2" customWidth="1" min="51" max="51"/>
+    <col width="42" customWidth="1" min="52" max="52"/>
+    <col width="50" customWidth="1" min="53" max="53"/>
+    <col width="39.6" customWidth="1" min="54" max="54"/>
+    <col width="46.8" customWidth="1" min="55" max="55"/>
+    <col width="44.4" customWidth="1" min="56" max="56"/>
+    <col width="27.6" customWidth="1" min="57" max="57"/>
+    <col width="33.6" customWidth="1" min="58" max="58"/>
+    <col width="38.4" customWidth="1" min="59" max="59"/>
+    <col width="32.4" customWidth="1" min="60" max="60"/>
+    <col width="46.8" customWidth="1" min="61" max="61"/>
+    <col width="40.8" customWidth="1" min="62" max="62"/>
     <col width="50" customWidth="1" min="63" max="63"/>
     <col width="50" customWidth="1" min="64" max="64"/>
     <col width="50" customWidth="1" min="65" max="65"/>
-    <col width="42" customWidth="1" min="66" max="66"/>
-    <col width="43.2" customWidth="1" min="67" max="67"/>
-    <col width="42" customWidth="1" min="68" max="68"/>
-    <col width="43.2" customWidth="1" min="69" max="69"/>
+    <col width="44.4" customWidth="1" min="66" max="66"/>
+    <col width="45.6" customWidth="1" min="67" max="67"/>
+    <col width="44.4" customWidth="1" min="68" max="68"/>
+    <col width="45.6" customWidth="1" min="69" max="69"/>
     <col width="50" customWidth="1" min="70" max="70"/>
-    <col width="43.2" customWidth="1" min="71" max="71"/>
-    <col width="42" customWidth="1" min="72" max="72"/>
-    <col width="43.2" customWidth="1" min="73" max="73"/>
-    <col width="39.6" customWidth="1" min="74" max="74"/>
+    <col width="44.4" customWidth="1" min="71" max="71"/>
+    <col width="43.2" customWidth="1" min="72" max="72"/>
+    <col width="44.4" customWidth="1" min="73" max="73"/>
+    <col width="40.8" customWidth="1" min="74" max="74"/>
     <col width="50" customWidth="1" min="75" max="75"/>
     <col width="50" customWidth="1" min="76" max="76"/>
     <col width="50" customWidth="1" min="77" max="77"/>
@@ -570,7 +570,7 @@
     <col width="50" customWidth="1" min="84" max="84"/>
     <col width="50" customWidth="1" min="85" max="85"/>
     <col width="50" customWidth="1" min="86" max="86"/>
-    <col width="37.2" customWidth="1" min="87" max="87"/>
+    <col width="38.4" customWidth="1" min="87" max="87"/>
     <col width="15.6" customWidth="1" min="88" max="88"/>
   </cols>
   <sheetData>
@@ -592,52 +592,52 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>energy_ratedCapacity_unit</t>
+          <t>energy__ratedCapacity__unit</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>energy_ratedCapacity_value</t>
+          <t>energy__ratedCapacity__value</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>energy_minimumVoltage_unit</t>
+          <t>energy__minimumVoltage__unit</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>energy_minimumVoltage_value</t>
+          <t>energy__minimumVoltage__value</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>energy_maximumVoltage_unit</t>
+          <t>energy__maximumVoltage__unit</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>energy_maximumVoltage_value</t>
+          <t>energy__maximumVoltage__value</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>energy_nominalVoltage_unit</t>
+          <t>energy__nominalVoltage__unit</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>energy_nominalVoltage_value</t>
+          <t>energy__nominalVoltage__value</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>energy_capacityFade_unit</t>
+          <t>energy__capacityFade__unit</t>
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>energy_capacityFade_value</t>
+          <t>energy__capacityFade__value</t>
         </is>
       </c>
       <c r="N1" s="3" t="inlineStr">
@@ -647,102 +647,102 @@
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>powerCapability_originalPowerCapability_unit</t>
+          <t>powerCapability__originalPowerCapability__unit</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t>powerCapability_originalPowerCapability_value</t>
+          <t>powerCapability__originalPowerCapability__value</t>
         </is>
       </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>powerCapability_maxPermittedBatteryPower_unit</t>
+          <t>powerCapability__maxPermittedBatteryPower__unit</t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
         <is>
-          <t>powerCapability_maxPermittedBatteryPower_value</t>
+          <t>powerCapability__maxPermittedBatteryPower__value</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>powerCapability_nominalToMaxPowerRatio</t>
+          <t>powerCapability__nominalToMaxPowerRatio</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>powerCapability_ubeCertifiedUsableEnergy</t>
+          <t>powerCapability__ubeCertifiedUsableEnergy</t>
         </is>
       </c>
       <c r="U1" s="2" t="inlineStr">
         <is>
-          <t>powerCapability_cRateOfCyleLifeTest_unit</t>
+          <t>powerCapability__cRateOfCyleLifeTest__unit</t>
         </is>
       </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
-          <t>powerCapability_cRateOfCyleLifeTest_value</t>
+          <t>powerCapability__cRateOfCyleLifeTest__value</t>
         </is>
       </c>
       <c r="W1" s="2" t="inlineStr">
         <is>
-          <t>resistanceInformation_initialInternalCellResistance_unit</t>
+          <t>resistanceInformation__initialInternalCellResistance__unit</t>
         </is>
       </c>
       <c r="X1" s="2" t="inlineStr">
         <is>
-          <t>resistanceInformation_initialInternalCellResistance_value</t>
+          <t>resistanceInformation__initialInternalCellResistance__value</t>
         </is>
       </c>
       <c r="Y1" s="2" t="inlineStr">
         <is>
-          <t>resistanceInformation_initialInternalModuleResistance_unit</t>
+          <t>resistanceInformation__initialInternalModuleResistance__unit</t>
         </is>
       </c>
       <c r="Z1" s="2" t="inlineStr">
         <is>
-          <t>resistanceInformation_initialInternalModuleResistance_value</t>
+          <t>resistanceInformation__initialInternalModuleResistance__value</t>
         </is>
       </c>
       <c r="AA1" s="2" t="inlineStr">
         <is>
-          <t>resistanceInformation_initialInternalPackResistance_unit</t>
+          <t>resistanceInformation__initialInternalPackResistance__unit</t>
         </is>
       </c>
       <c r="AB1" s="2" t="inlineStr">
         <is>
-          <t>resistanceInformation_initialInternalPackResistance_value</t>
+          <t>resistanceInformation__initialInternalPackResistance__value</t>
         </is>
       </c>
       <c r="AC1" s="2" t="inlineStr">
         <is>
-          <t>resistanceInformation_internalResistanceIncreaseCell_unit</t>
+          <t>resistanceInformation__internalResistanceIncreaseCell__unit</t>
         </is>
       </c>
       <c r="AD1" s="2" t="inlineStr">
         <is>
-          <t>resistanceInformation_internalResistanceIncreaseCell_value</t>
+          <t>resistanceInformation__internalResistanceIncreaseCell__value</t>
         </is>
       </c>
       <c r="AE1" s="2" t="inlineStr">
         <is>
-          <t>resistanceInformation_internalResistanceIncreaseModule_unit</t>
+          <t>resistanceInformation__internalResistanceIncreaseModule__unit</t>
         </is>
       </c>
       <c r="AF1" s="2" t="inlineStr">
         <is>
-          <t>resistanceInformation_internalResistanceIncreaseModule_value</t>
+          <t>resistanceInformation__internalResistanceIncreaseModule__value</t>
         </is>
       </c>
       <c r="AG1" s="2" t="inlineStr">
         <is>
-          <t>batteryLifetime_expectedCycles</t>
+          <t>batteryLifetime__expectedCycles</t>
         </is>
       </c>
       <c r="AH1" s="2" t="inlineStr">
         <is>
-          <t>batteryLifetime_expectedCalenderYears</t>
+          <t>batteryLifetime__expectedCalenderYears</t>
         </is>
       </c>
       <c r="AI1" s="3" t="inlineStr">
@@ -752,262 +752,262 @@
       </c>
       <c r="AJ1" s="2" t="inlineStr">
         <is>
-          <t>componentInformation_anode[0]_precisionRange</t>
+          <t>componentInformation__anode[0]__precisionRange</t>
         </is>
       </c>
       <c r="AK1" s="2" t="inlineStr">
         <is>
-          <t>componentInformation_anode[0]_percentageOfMaterialWeight</t>
+          <t>componentInformation__anode[0]__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="AL1" s="2" t="inlineStr">
         <is>
-          <t>componentInformation_anode[0]_materialIdentifier</t>
+          <t>componentInformation__anode[0]__materialIdentifier</t>
         </is>
       </c>
       <c r="AM1" s="2" t="inlineStr">
         <is>
-          <t>componentInformation_cathode[0]_precisionRange</t>
+          <t>componentInformation__cathode[0]__precisionRange</t>
         </is>
       </c>
       <c r="AN1" s="2" t="inlineStr">
         <is>
-          <t>componentInformation_cathode[0]_percentageOfMaterialWeight</t>
+          <t>componentInformation__cathode[0]__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="AO1" s="2" t="inlineStr">
         <is>
-          <t>componentInformation_cathode[0]_materialIdentifier</t>
+          <t>componentInformation__cathode[0]__materialIdentifier</t>
         </is>
       </c>
       <c r="AP1" s="2" t="inlineStr">
         <is>
-          <t>componentInformation_electrolyte[0]_precisionRange</t>
+          <t>componentInformation__electrolyte[0]__precisionRange</t>
         </is>
       </c>
       <c r="AQ1" s="2" t="inlineStr">
         <is>
-          <t>componentInformation_electrolyte[0]_percentageOfMaterialWeight</t>
+          <t>componentInformation__electrolyte[0]__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="AR1" s="2" t="inlineStr">
         <is>
-          <t>componentInformation_electrolyte[0]_materialIdentifier</t>
+          <t>componentInformation__electrolyte[0]__materialIdentifier</t>
         </is>
       </c>
       <c r="AS1" s="2" t="inlineStr">
         <is>
-          <t>documentList[0]_content</t>
+          <t>documentList[0]__content</t>
         </is>
       </c>
       <c r="AT1" s="2" t="inlineStr">
         <is>
-          <t>documentList[0]_contentType</t>
+          <t>documentList[0]__contentType</t>
         </is>
       </c>
       <c r="AU1" s="2" t="inlineStr">
         <is>
-          <t>documentList[0]_header</t>
+          <t>documentList[0]__header</t>
         </is>
       </c>
       <c r="AV1" s="2" t="inlineStr">
         <is>
-          <t>usableExtinguishAgent[0]_document[0]_content</t>
+          <t>usableExtinguishAgent[0]__document[0]__content</t>
         </is>
       </c>
       <c r="AW1" s="2" t="inlineStr">
         <is>
-          <t>usableExtinguishAgent[0]_document[0]_contentType</t>
+          <t>usableExtinguishAgent[0]__document[0]__contentType</t>
         </is>
       </c>
       <c r="AX1" s="2" t="inlineStr">
         <is>
-          <t>usableExtinguishAgent[0]_document[0]_header</t>
+          <t>usableExtinguishAgent[0]__document[0]__header</t>
         </is>
       </c>
       <c r="AY1" s="2" t="inlineStr">
         <is>
-          <t>usableExtinguishAgent[0]_media</t>
+          <t>usableExtinguishAgent[0]__media</t>
         </is>
       </c>
       <c r="AZ1" s="2" t="inlineStr">
         <is>
-          <t>usableExtinguishAgent[0]_fireClass</t>
+          <t>usableExtinguishAgent[0]__fireClass</t>
         </is>
       </c>
       <c r="BA1" s="2" t="inlineStr">
         <is>
-          <t>ratedRoundTripEfficiency_depthOfDischarge</t>
+          <t>ratedRoundTripEfficiency__depthOfDischarge</t>
         </is>
       </c>
       <c r="BB1" s="2" t="inlineStr">
         <is>
-          <t>ratedRoundTripEfficiency_initial</t>
+          <t>ratedRoundTripEfficiency__initial</t>
         </is>
       </c>
       <c r="BC1" s="2" t="inlineStr">
         <is>
-          <t>ratedRoundTripEfficiency_50PercentLife</t>
+          <t>ratedRoundTripEfficiency__50PercentLife</t>
         </is>
       </c>
       <c r="BD1" s="3" t="inlineStr">
         <is>
-          <t>ratedRoundTripEfficiency_temperature</t>
+          <t>ratedRoundTripEfficiency__temperature</t>
         </is>
       </c>
       <c r="BE1" s="2" t="inlineStr">
         <is>
-          <t>lifetime_expectedYears</t>
+          <t>lifetime__expectedYears</t>
         </is>
       </c>
       <c r="BF1" s="2" t="inlineStr">
         <is>
-          <t>lifetime_report[0]_content</t>
+          <t>lifetime__report[0]__content</t>
         </is>
       </c>
       <c r="BG1" s="2" t="inlineStr">
         <is>
-          <t>lifetime_report[0]_contentType</t>
+          <t>lifetime__report[0]__contentType</t>
         </is>
       </c>
       <c r="BH1" s="2" t="inlineStr">
         <is>
-          <t>lifetime_report[0]_header</t>
+          <t>lifetime__report[0]__header</t>
         </is>
       </c>
       <c r="BI1" s="2" t="inlineStr">
         <is>
-          <t>lifetime_cycleLifeTesting_temperature</t>
+          <t>lifetime__cycleLifeTesting__temperature</t>
         </is>
       </c>
       <c r="BJ1" s="2" t="inlineStr">
         <is>
-          <t>lifetime_cycleLifeTesting_cycles</t>
+          <t>lifetime__cycleLifeTesting__cycles</t>
         </is>
       </c>
       <c r="BK1" s="2" t="inlineStr">
         <is>
-          <t>lifetime_cycleLifeTesting_depthOfDischarge</t>
+          <t>lifetime__cycleLifeTesting__depthOfDischarge</t>
         </is>
       </c>
       <c r="BL1" s="2" t="inlineStr">
         <is>
-          <t>lifetime_cycleLifeTesting_appliedChargeRate</t>
+          <t>lifetime__cycleLifeTesting__appliedChargeRate</t>
         </is>
       </c>
       <c r="BM1" s="2" t="inlineStr">
         <is>
-          <t>lifetime_cycleLifeTesting_appliedDischargeRate</t>
+          <t>lifetime__cycleLifeTesting__appliedDischargeRate</t>
         </is>
       </c>
       <c r="BN1" s="2" t="inlineStr">
         <is>
-          <t>temperatureRange_lowerBoundary_unit</t>
+          <t>temperatureRange__lowerBoundary__unit</t>
         </is>
       </c>
       <c r="BO1" s="2" t="inlineStr">
         <is>
-          <t>temperatureRange_lowerBoundary_value</t>
+          <t>temperatureRange__lowerBoundary__value</t>
         </is>
       </c>
       <c r="BP1" s="2" t="inlineStr">
         <is>
-          <t>temperatureRange_upperBoundary_unit</t>
+          <t>temperatureRange__upperBoundary__unit</t>
         </is>
       </c>
       <c r="BQ1" s="2" t="inlineStr">
         <is>
-          <t>temperatureRange_upperBoundary_value</t>
+          <t>temperatureRange__upperBoundary__value</t>
         </is>
       </c>
       <c r="BR1" s="2" t="inlineStr">
         <is>
-          <t>initialSelfDischaringRate_selfDischargeRate</t>
+          <t>initialSelfDischaringRate__selfDischargeRate</t>
         </is>
       </c>
       <c r="BS1" s="2" t="inlineStr">
         <is>
-          <t>initialSelfDischaringRate_unitOfTime</t>
+          <t>initialSelfDischaringRate__unitOfTime</t>
         </is>
       </c>
       <c r="BT1" s="2" t="inlineStr">
         <is>
-          <t>capacityThresholdForExhaustion_unit</t>
+          <t>capacityThresholdForExhaustion__unit</t>
         </is>
       </c>
       <c r="BU1" s="2" t="inlineStr">
         <is>
-          <t>capacityThresholdForExhaustion_value</t>
+          <t>capacityThresholdForExhaustion__value</t>
         </is>
       </c>
       <c r="BV1" s="2" t="inlineStr">
         <is>
-          <t>sparePartInformation_emailAddress</t>
+          <t>sparePartInformation__emailAddress</t>
         </is>
       </c>
       <c r="BW1" s="2" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_thoroughfare_technicalKey</t>
+          <t>sparePartInformation__postalAddress__thoroughfare__technicalKey</t>
         </is>
       </c>
       <c r="BX1" s="2" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_thoroughfare_value</t>
+          <t>sparePartInformation__postalAddress__thoroughfare__value</t>
         </is>
       </c>
       <c r="BY1" s="2" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_thoroughfare_number</t>
+          <t>sparePartInformation__postalAddress__thoroughfare__number</t>
         </is>
       </c>
       <c r="BZ1" s="2" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_locality_technicalKey</t>
+          <t>sparePartInformation__postalAddress__locality__technicalKey</t>
         </is>
       </c>
       <c r="CA1" s="2" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_locality_value</t>
+          <t>sparePartInformation__postalAddress__locality__value</t>
         </is>
       </c>
       <c r="CB1" s="2" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_premise_technicalKey</t>
+          <t>sparePartInformation__postalAddress__premise__technicalKey</t>
         </is>
       </c>
       <c r="CC1" s="2" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_premise_value</t>
+          <t>sparePartInformation__postalAddress__premise__value</t>
         </is>
       </c>
       <c r="CD1" s="2" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_postalDeliveryPoint_technicalKey</t>
+          <t>sparePartInformation__postalAddress__postalDeliveryPoint__technicalKey</t>
         </is>
       </c>
       <c r="CE1" s="2" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_postalDeliveryPoint_value</t>
+          <t>sparePartInformation__postalAddress__postalDeliveryPoint__value</t>
         </is>
       </c>
       <c r="CF1" s="2" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_country_shortName</t>
+          <t>sparePartInformation__postalAddress__country__shortName</t>
         </is>
       </c>
       <c r="CG1" s="2" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_postCode_value</t>
+          <t>sparePartInformation__postalAddress__postCode__value</t>
         </is>
       </c>
       <c r="CH1" s="2" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_postCode_technicalKey</t>
+          <t>sparePartInformation__postalAddress__postCode__technicalKey</t>
         </is>
       </c>
       <c r="CI1" s="2" t="inlineStr">
         <is>
-          <t>sparePartInformation_webAddress</t>
+          <t>sparePartInformation__webAddress</t>
         </is>
       </c>
       <c r="CJ1" s="3" t="inlineStr">
@@ -1061,7 +1061,7 @@
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>2. Columns highlighted in olive green are digital twin fields.</t>
+          <t>1. Columns highlighted in olive green are digital twin fields.</t>
         </is>
       </c>
       <c r="B3" s="5" t="n"/>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>Digital Twin Field: id</t>
+          <t>Digital Twin Field Name: id</t>
         </is>
       </c>
       <c r="C5" s="7" t="n"/>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>Digital Twin Field: manufacturerPartId</t>
+          <t>Digital Twin Field Name: manufacturerPartId</t>
         </is>
       </c>
       <c r="C6" s="8" t="n"/>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>Digital Twin Field: partInstanceId</t>
+          <t>Digital Twin Field Name: partInstanceId</t>
         </is>
       </c>
       <c r="C7" s="7" t="n"/>
@@ -1126,7 +1126,7 @@
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>energy_ratedCapacity_unit</t>
+          <t>energy__ratedCapacity__unit</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
@@ -1139,7 +1139,7 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>energy_ratedCapacity_value</t>
+          <t>energy__ratedCapacity__value</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1152,7 +1152,7 @@
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>energy_minimumVoltage_unit</t>
+          <t>energy__minimumVoltage__unit</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -1165,7 +1165,7 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>energy_minimumVoltage_value</t>
+          <t>energy__minimumVoltage__value</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1178,7 +1178,7 @@
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>energy_maximumVoltage_unit</t>
+          <t>energy__maximumVoltage__unit</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
@@ -1191,7 +1191,7 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>energy_maximumVoltage_value</t>
+          <t>energy__maximumVoltage__value</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>energy_nominalVoltage_unit</t>
+          <t>energy__nominalVoltage__unit</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
@@ -1217,7 +1217,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>energy_nominalVoltage_value</t>
+          <t>energy__nominalVoltage__value</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
@@ -1230,7 +1230,7 @@
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>energy_capacityFade_unit</t>
+          <t>energy__capacityFade__unit</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
@@ -1243,7 +1243,7 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>energy_capacityFade_value</t>
+          <t>energy__capacityFade__value</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
@@ -1273,7 +1273,7 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>powerCapability_originalPowerCapability_unit</t>
+          <t>powerCapability__originalPowerCapability__unit</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
@@ -1286,7 +1286,7 @@
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>powerCapability_originalPowerCapability_value</t>
+          <t>powerCapability__originalPowerCapability__value</t>
         </is>
       </c>
       <c r="B20" s="8" t="inlineStr">
@@ -1299,7 +1299,7 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>powerCapability_maxPermittedBatteryPower_unit</t>
+          <t>powerCapability__maxPermittedBatteryPower__unit</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>powerCapability_maxPermittedBatteryPower_value</t>
+          <t>powerCapability__maxPermittedBatteryPower__value</t>
         </is>
       </c>
       <c r="B22" s="8" t="inlineStr">
@@ -1325,7 +1325,7 @@
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>powerCapability_nominalToMaxPowerRatio</t>
+          <t>powerCapability__nominalToMaxPowerRatio</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
@@ -1338,7 +1338,7 @@
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
         <is>
-          <t>powerCapability_ubeCertifiedUsableEnergy</t>
+          <t>powerCapability__ubeCertifiedUsableEnergy</t>
         </is>
       </c>
       <c r="B24" s="8" t="inlineStr"/>
@@ -1347,7 +1347,7 @@
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>powerCapability_cRateOfCyleLifeTest_unit</t>
+          <t>powerCapability__cRateOfCyleLifeTest__unit</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
         <is>
-          <t>powerCapability_cRateOfCyleLifeTest_value</t>
+          <t>powerCapability__cRateOfCyleLifeTest__value</t>
         </is>
       </c>
       <c r="B26" s="8" t="inlineStr">
@@ -1373,7 +1373,7 @@
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>resistanceInformation_initialInternalCellResistance_unit</t>
+          <t>resistanceInformation__initialInternalCellResistance__unit</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">
@@ -1386,7 +1386,7 @@
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
-          <t>resistanceInformation_initialInternalCellResistance_value</t>
+          <t>resistanceInformation__initialInternalCellResistance__value</t>
         </is>
       </c>
       <c r="B28" s="8" t="inlineStr">
@@ -1399,7 +1399,7 @@
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>resistanceInformation_initialInternalModuleResistance_unit</t>
+          <t>resistanceInformation__initialInternalModuleResistance__unit</t>
         </is>
       </c>
       <c r="B29" s="7" t="inlineStr">
@@ -1412,7 +1412,7 @@
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
         <is>
-          <t>resistanceInformation_initialInternalModuleResistance_value</t>
+          <t>resistanceInformation__initialInternalModuleResistance__value</t>
         </is>
       </c>
       <c r="B30" s="8" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>resistanceInformation_initialInternalPackResistance_unit</t>
+          <t>resistanceInformation__initialInternalPackResistance__unit</t>
         </is>
       </c>
       <c r="B31" s="7" t="inlineStr">
@@ -1438,7 +1438,7 @@
     <row r="32">
       <c r="A32" s="8" t="inlineStr">
         <is>
-          <t>resistanceInformation_initialInternalPackResistance_value</t>
+          <t>resistanceInformation__initialInternalPackResistance__value</t>
         </is>
       </c>
       <c r="B32" s="8" t="inlineStr">
@@ -1451,7 +1451,7 @@
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
-          <t>resistanceInformation_internalResistanceIncreaseCell_unit</t>
+          <t>resistanceInformation__internalResistanceIncreaseCell__unit</t>
         </is>
       </c>
       <c r="B33" s="7" t="inlineStr">
@@ -1464,7 +1464,7 @@
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>resistanceInformation_internalResistanceIncreaseCell_value</t>
+          <t>resistanceInformation__internalResistanceIncreaseCell__value</t>
         </is>
       </c>
       <c r="B34" s="8" t="inlineStr">
@@ -1477,7 +1477,7 @@
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
         <is>
-          <t>resistanceInformation_internalResistanceIncreaseModule_unit</t>
+          <t>resistanceInformation__internalResistanceIncreaseModule__unit</t>
         </is>
       </c>
       <c r="B35" s="7" t="inlineStr">
@@ -1490,7 +1490,7 @@
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>resistanceInformation_internalResistanceIncreaseModule_value</t>
+          <t>resistanceInformation__internalResistanceIncreaseModule__value</t>
         </is>
       </c>
       <c r="B36" s="8" t="inlineStr">
@@ -1503,7 +1503,7 @@
     <row r="37">
       <c r="A37" s="7" t="inlineStr">
         <is>
-          <t>batteryLifetime_expectedCycles</t>
+          <t>batteryLifetime__expectedCycles</t>
         </is>
       </c>
       <c r="B37" s="7" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="38">
       <c r="A38" s="8" t="inlineStr">
         <is>
-          <t>batteryLifetime_expectedCalenderYears</t>
+          <t>batteryLifetime__expectedCalenderYears</t>
         </is>
       </c>
       <c r="B38" s="8" t="inlineStr"/>
@@ -1538,7 +1538,7 @@
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
         <is>
-          <t>componentInformation_anode[0]_precisionRange</t>
+          <t>componentInformation__anode[0]__precisionRange</t>
         </is>
       </c>
       <c r="B40" s="8" t="inlineStr">
@@ -1551,7 +1551,7 @@
     <row r="41">
       <c r="A41" s="7" t="inlineStr">
         <is>
-          <t>componentInformation_anode[0]_percentageOfMaterialWeight</t>
+          <t>componentInformation__anode[0]__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="B41" s="7" t="inlineStr"/>
@@ -1560,7 +1560,7 @@
     <row r="42">
       <c r="A42" s="8" t="inlineStr">
         <is>
-          <t>componentInformation_anode[0]_materialIdentifier</t>
+          <t>componentInformation__anode[0]__materialIdentifier</t>
         </is>
       </c>
       <c r="B42" s="8" t="inlineStr">
@@ -1573,7 +1573,7 @@
     <row r="43">
       <c r="A43" s="7" t="inlineStr">
         <is>
-          <t>componentInformation_cathode[0]_precisionRange</t>
+          <t>componentInformation__cathode[0]__precisionRange</t>
         </is>
       </c>
       <c r="B43" s="7" t="inlineStr">
@@ -1586,7 +1586,7 @@
     <row r="44">
       <c r="A44" s="8" t="inlineStr">
         <is>
-          <t>componentInformation_cathode[0]_percentageOfMaterialWeight</t>
+          <t>componentInformation__cathode[0]__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="B44" s="8" t="inlineStr"/>
@@ -1595,7 +1595,7 @@
     <row r="45">
       <c r="A45" s="7" t="inlineStr">
         <is>
-          <t>componentInformation_cathode[0]_materialIdentifier</t>
+          <t>componentInformation__cathode[0]__materialIdentifier</t>
         </is>
       </c>
       <c r="B45" s="7" t="inlineStr">
@@ -1608,7 +1608,7 @@
     <row r="46">
       <c r="A46" s="8" t="inlineStr">
         <is>
-          <t>componentInformation_electrolyte[0]_precisionRange</t>
+          <t>componentInformation__electrolyte[0]__precisionRange</t>
         </is>
       </c>
       <c r="B46" s="8" t="inlineStr">
@@ -1621,7 +1621,7 @@
     <row r="47">
       <c r="A47" s="7" t="inlineStr">
         <is>
-          <t>componentInformation_electrolyte[0]_percentageOfMaterialWeight</t>
+          <t>componentInformation__electrolyte[0]__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="B47" s="7" t="inlineStr"/>
@@ -1630,7 +1630,7 @@
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
-          <t>componentInformation_electrolyte[0]_materialIdentifier</t>
+          <t>componentInformation__electrolyte[0]__materialIdentifier</t>
         </is>
       </c>
       <c r="B48" s="8" t="inlineStr">
@@ -1643,7 +1643,7 @@
     <row r="49">
       <c r="A49" s="7" t="inlineStr">
         <is>
-          <t>documentList[0]_content</t>
+          <t>documentList[0]__content</t>
         </is>
       </c>
       <c r="B49" s="7" t="inlineStr">
@@ -1656,7 +1656,7 @@
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
         <is>
-          <t>documentList[0]_contentType</t>
+          <t>documentList[0]__contentType</t>
         </is>
       </c>
       <c r="B50" s="8" t="inlineStr">
@@ -1669,7 +1669,7 @@
     <row r="51">
       <c r="A51" s="7" t="inlineStr">
         <is>
-          <t>documentList[0]_header</t>
+          <t>documentList[0]__header</t>
         </is>
       </c>
       <c r="B51" s="7" t="inlineStr">
@@ -1686,7 +1686,7 @@
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
-          <t>usableExtinguishAgent[0]_document[0]_content</t>
+          <t>usableExtinguishAgent[0]__document[0]__content</t>
         </is>
       </c>
       <c r="B52" s="8" t="inlineStr">
@@ -1699,7 +1699,7 @@
     <row r="53">
       <c r="A53" s="7" t="inlineStr">
         <is>
-          <t>usableExtinguishAgent[0]_document[0]_contentType</t>
+          <t>usableExtinguishAgent[0]__document[0]__contentType</t>
         </is>
       </c>
       <c r="B53" s="7" t="inlineStr">
@@ -1712,7 +1712,7 @@
     <row r="54">
       <c r="A54" s="8" t="inlineStr">
         <is>
-          <t>usableExtinguishAgent[0]_document[0]_header</t>
+          <t>usableExtinguishAgent[0]__document[0]__header</t>
         </is>
       </c>
       <c r="B54" s="8" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="55">
       <c r="A55" s="7" t="inlineStr">
         <is>
-          <t>usableExtinguishAgent[0]_media</t>
+          <t>usableExtinguishAgent[0]__media</t>
         </is>
       </c>
       <c r="B55" s="7" t="inlineStr">
@@ -1739,7 +1739,7 @@
     <row r="56">
       <c r="A56" s="8" t="inlineStr">
         <is>
-          <t>usableExtinguishAgent[0]_fireClass</t>
+          <t>usableExtinguishAgent[0]__fireClass</t>
         </is>
       </c>
       <c r="B56" s="8" t="inlineStr">
@@ -1752,7 +1752,7 @@
     <row r="57">
       <c r="A57" s="7" t="inlineStr">
         <is>
-          <t>ratedRoundTripEfficiency_depthOfDischarge</t>
+          <t>ratedRoundTripEfficiency__depthOfDischarge</t>
         </is>
       </c>
       <c r="B57" s="7" t="inlineStr">
@@ -1766,7 +1766,7 @@
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
         <is>
-          <t>ratedRoundTripEfficiency_initial</t>
+          <t>ratedRoundTripEfficiency__initial</t>
         </is>
       </c>
       <c r="B58" s="8" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="59">
       <c r="A59" s="7" t="inlineStr">
         <is>
-          <t>ratedRoundTripEfficiency_50PercentLife</t>
+          <t>ratedRoundTripEfficiency__50PercentLife</t>
         </is>
       </c>
       <c r="B59" s="7" t="inlineStr">
@@ -1794,7 +1794,7 @@
     <row r="60">
       <c r="A60" s="8" t="inlineStr">
         <is>
-          <t>ratedRoundTripEfficiency_temperature</t>
+          <t>ratedRoundTripEfficiency__temperature</t>
         </is>
       </c>
       <c r="B60" s="8" t="inlineStr">
@@ -1807,7 +1807,7 @@
     <row r="61">
       <c r="A61" s="7" t="inlineStr">
         <is>
-          <t>lifetime_expectedYears</t>
+          <t>lifetime__expectedYears</t>
         </is>
       </c>
       <c r="B61" s="7" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>lifetime_report[0]_content</t>
+          <t>lifetime__report[0]__content</t>
         </is>
       </c>
       <c r="B62" s="8" t="inlineStr">
@@ -1834,7 +1834,7 @@
     <row r="63">
       <c r="A63" s="7" t="inlineStr">
         <is>
-          <t>lifetime_report[0]_contentType</t>
+          <t>lifetime__report[0]__contentType</t>
         </is>
       </c>
       <c r="B63" s="7" t="inlineStr">
@@ -1847,7 +1847,7 @@
     <row r="64">
       <c r="A64" s="8" t="inlineStr">
         <is>
-          <t>lifetime_report[0]_header</t>
+          <t>lifetime__report[0]__header</t>
         </is>
       </c>
       <c r="B64" s="8" t="inlineStr">
@@ -1860,7 +1860,7 @@
     <row r="65">
       <c r="A65" s="7" t="inlineStr">
         <is>
-          <t>lifetime_cycleLifeTesting_temperature</t>
+          <t>lifetime__cycleLifeTesting__temperature</t>
         </is>
       </c>
       <c r="B65" s="7" t="inlineStr">
@@ -1873,7 +1873,7 @@
     <row r="66">
       <c r="A66" s="8" t="inlineStr">
         <is>
-          <t>lifetime_cycleLifeTesting_cycles</t>
+          <t>lifetime__cycleLifeTesting__cycles</t>
         </is>
       </c>
       <c r="B66" s="8" t="inlineStr">
@@ -1886,7 +1886,7 @@
     <row r="67">
       <c r="A67" s="7" t="inlineStr">
         <is>
-          <t>lifetime_cycleLifeTesting_depthOfDischarge</t>
+          <t>lifetime__cycleLifeTesting__depthOfDischarge</t>
         </is>
       </c>
       <c r="B67" s="7" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
-          <t>lifetime_cycleLifeTesting_appliedChargeRate</t>
+          <t>lifetime__cycleLifeTesting__appliedChargeRate</t>
         </is>
       </c>
       <c r="B68" s="8" t="inlineStr">
@@ -1916,7 +1916,7 @@
     <row r="69">
       <c r="A69" s="7" t="inlineStr">
         <is>
-          <t>lifetime_cycleLifeTesting_appliedDischargeRate</t>
+          <t>lifetime__cycleLifeTesting__appliedDischargeRate</t>
         </is>
       </c>
       <c r="B69" s="7" t="inlineStr">
@@ -1932,7 +1932,7 @@
     <row r="70">
       <c r="A70" s="8" t="inlineStr">
         <is>
-          <t>temperatureRange_lowerBoundary_unit</t>
+          <t>temperatureRange__lowerBoundary__unit</t>
         </is>
       </c>
       <c r="B70" s="8" t="inlineStr">
@@ -1945,7 +1945,7 @@
     <row r="71">
       <c r="A71" s="7" t="inlineStr">
         <is>
-          <t>temperatureRange_lowerBoundary_value</t>
+          <t>temperatureRange__lowerBoundary__value</t>
         </is>
       </c>
       <c r="B71" s="7" t="inlineStr">
@@ -1958,7 +1958,7 @@
     <row r="72">
       <c r="A72" s="8" t="inlineStr">
         <is>
-          <t>temperatureRange_upperBoundary_unit</t>
+          <t>temperatureRange__upperBoundary__unit</t>
         </is>
       </c>
       <c r="B72" s="8" t="inlineStr">
@@ -1971,7 +1971,7 @@
     <row r="73">
       <c r="A73" s="7" t="inlineStr">
         <is>
-          <t>temperatureRange_upperBoundary_value</t>
+          <t>temperatureRange__upperBoundary__value</t>
         </is>
       </c>
       <c r="B73" s="7" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="74">
       <c r="A74" s="8" t="inlineStr">
         <is>
-          <t>initialSelfDischaringRate_selfDischargeRate</t>
+          <t>initialSelfDischaringRate__selfDischargeRate</t>
         </is>
       </c>
       <c r="B74" s="8" t="inlineStr"/>
@@ -1993,7 +1993,7 @@
     <row r="75">
       <c r="A75" s="7" t="inlineStr">
         <is>
-          <t>initialSelfDischaringRate_unitOfTime</t>
+          <t>initialSelfDischaringRate__unitOfTime</t>
         </is>
       </c>
       <c r="B75" s="7" t="inlineStr">
@@ -2006,7 +2006,7 @@
     <row r="76">
       <c r="A76" s="8" t="inlineStr">
         <is>
-          <t>capacityThresholdForExhaustion_unit</t>
+          <t>capacityThresholdForExhaustion__unit</t>
         </is>
       </c>
       <c r="B76" s="8" t="inlineStr">
@@ -2019,7 +2019,7 @@
     <row r="77">
       <c r="A77" s="7" t="inlineStr">
         <is>
-          <t>capacityThresholdForExhaustion_value</t>
+          <t>capacityThresholdForExhaustion__value</t>
         </is>
       </c>
       <c r="B77" s="7" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="78">
       <c r="A78" s="8" t="inlineStr">
         <is>
-          <t>sparePartInformation_emailAddress</t>
+          <t>sparePartInformation__emailAddress</t>
         </is>
       </c>
       <c r="B78" s="8" t="inlineStr">
@@ -2045,7 +2045,7 @@
     <row r="79">
       <c r="A79" s="7" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_thoroughfare_technicalKey</t>
+          <t>sparePartInformation__postalAddress__thoroughfare__technicalKey</t>
         </is>
       </c>
       <c r="B79" s="7" t="inlineStr">
@@ -2062,7 +2062,7 @@
     <row r="80">
       <c r="A80" s="8" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_thoroughfare_value</t>
+          <t>sparePartInformation__postalAddress__thoroughfare__value</t>
         </is>
       </c>
       <c r="B80" s="8" t="inlineStr">
@@ -2075,7 +2075,7 @@
     <row r="81">
       <c r="A81" s="7" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_thoroughfare_number</t>
+          <t>sparePartInformation__postalAddress__thoroughfare__number</t>
         </is>
       </c>
       <c r="B81" s="7" t="inlineStr">
@@ -2088,7 +2088,7 @@
     <row r="82">
       <c r="A82" s="8" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_locality_technicalKey</t>
+          <t>sparePartInformation__postalAddress__locality__technicalKey</t>
         </is>
       </c>
       <c r="B82" s="8" t="inlineStr">
@@ -2105,7 +2105,7 @@
     <row r="83">
       <c r="A83" s="7" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_locality_value</t>
+          <t>sparePartInformation__postalAddress__locality__value</t>
         </is>
       </c>
       <c r="B83" s="7" t="inlineStr">
@@ -2118,7 +2118,7 @@
     <row r="84">
       <c r="A84" s="8" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_premise_technicalKey</t>
+          <t>sparePartInformation__postalAddress__premise__technicalKey</t>
         </is>
       </c>
       <c r="B84" s="8" t="inlineStr">
@@ -2135,7 +2135,7 @@
     <row r="85">
       <c r="A85" s="7" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_premise_value</t>
+          <t>sparePartInformation__postalAddress__premise__value</t>
         </is>
       </c>
       <c r="B85" s="7" t="inlineStr">
@@ -2148,7 +2148,7 @@
     <row r="86">
       <c r="A86" s="8" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_postalDeliveryPoint_technicalKey</t>
+          <t>sparePartInformation__postalAddress__postalDeliveryPoint__technicalKey</t>
         </is>
       </c>
       <c r="B86" s="8" t="inlineStr">
@@ -2165,7 +2165,7 @@
     <row r="87">
       <c r="A87" s="7" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_postalDeliveryPoint_value</t>
+          <t>sparePartInformation__postalAddress__postalDeliveryPoint__value</t>
         </is>
       </c>
       <c r="B87" s="7" t="inlineStr">
@@ -2178,7 +2178,7 @@
     <row r="88">
       <c r="A88" s="8" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_country_shortName</t>
+          <t>sparePartInformation__postalAddress__country__shortName</t>
         </is>
       </c>
       <c r="B88" s="8" t="inlineStr">
@@ -2191,7 +2191,7 @@
     <row r="89">
       <c r="A89" s="7" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_postCode_value</t>
+          <t>sparePartInformation__postalAddress__postCode__value</t>
         </is>
       </c>
       <c r="B89" s="7" t="inlineStr">
@@ -2204,7 +2204,7 @@
     <row r="90">
       <c r="A90" s="8" t="inlineStr">
         <is>
-          <t>sparePartInformation_postalAddress_postCode_technicalKey</t>
+          <t>sparePartInformation__postalAddress__postCode__technicalKey</t>
         </is>
       </c>
       <c r="B90" s="8" t="inlineStr">
@@ -2221,7 +2221,7 @@
     <row r="91">
       <c r="A91" s="7" t="inlineStr">
         <is>
-          <t>sparePartInformation_webAddress</t>
+          <t>sparePartInformation__webAddress</t>
         </is>
       </c>
       <c r="B91" s="7" t="inlineStr">

--- a/excel_reporting_templates/BatteryTypeInformationForBatterySupplier-1.0.0-schema-reporting_template.xlsx
+++ b/excel_reporting_templates/BatteryTypeInformationForBatterySupplier-1.0.0-schema-reporting_template.xlsx
@@ -484,7 +484,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.4" customWidth="1" min="1" max="1"/>
+    <col width="9.6" customWidth="1" min="1" max="1"/>
     <col width="21.6" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="32.4" customWidth="1" min="4" max="4"/>
@@ -577,7 +577,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>dtwin_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1087,7 +1087,7 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>dtwin_id</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
